--- a/Data/quiz/e4v3/steps.xlsx
+++ b/Data/quiz/e4v3/steps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghsaund/Documents/BYUI_M221_Book_Sandbox/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e4v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCE0649-62EA-664C-9189-7AFA38576598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776423FE-A66D-41A1-A7A6-4C6947DB9DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="2860" windowWidth="27240" windowHeight="16440" xr2:uid="{4AC2E26C-FA7F-B644-B2EA-3D77AD426083}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AC2E26C-FA7F-B644-B2EA-3D77AD426083}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Total Calories Burned</t>
-  </si>
-  <si>
-    <t>Daily Step Count</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -61,6 +52,15 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>total_calories_burned</t>
+  </si>
+  <si>
+    <t>daily_step_count</t>
   </si>
 </sst>
 </file>
@@ -418,26 +418,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C00FD4-621B-4A4F-A93A-57FF31CA0FB7}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>1007.36</v>
@@ -446,9 +444,9 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1161.68</v>
@@ -457,9 +455,9 @@
         <v>8567</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1062.04</v>
@@ -468,9 +466,9 @@
         <v>7026</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>998.64</v>
@@ -479,9 +477,9 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1067.1199999999999</v>
@@ -490,9 +488,9 @@
         <v>6628</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>966.24</v>
@@ -501,9 +499,9 @@
         <v>4856</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>858.96</v>
@@ -512,9 +510,9 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>933.4</v>
@@ -523,9 +521,9 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>1311.92</v>
@@ -534,9 +532,9 @@
         <v>11798</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>1150.1600000000001</v>
@@ -545,9 +543,9 @@
         <v>8504</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>1258.52</v>
@@ -556,9 +554,9 @@
         <v>11888</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>1163.28</v>
@@ -567,9 +565,9 @@
         <v>8182</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>862.68000000000006</v>
@@ -578,9 +576,9 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>945.12</v>
@@ -589,9 +587,9 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>1088.8</v>

--- a/Data/quiz/e4v3/steps.xlsx
+++ b/Data/quiz/e4v3/steps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e4v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\docs\Data\quiz\e4v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776423FE-A66D-41A1-A7A6-4C6947DB9DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC3B580-9607-40ED-ABB5-9138D3136E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AC2E26C-FA7F-B644-B2EA-3D77AD426083}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4AC2E26C-FA7F-B644-B2EA-3D77AD426083}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,9 +420,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -433,7 +433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -455,7 +455,7 @@
         <v>8567</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -466,7 +466,7 @@
         <v>7026</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -477,7 +477,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -488,7 +488,7 @@
         <v>6628</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -499,7 +499,7 @@
         <v>4856</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -510,7 +510,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +521,7 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,7 +532,7 @@
         <v>11798</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -543,7 +543,7 @@
         <v>8504</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -554,7 +554,7 @@
         <v>11888</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -565,7 +565,7 @@
         <v>8182</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -576,7 +576,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -587,7 +587,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
